--- a/X2FA BOM.xlsx
+++ b/X2FA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e845f420e7ebb14d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{C47EC3F5-65AB-2541-8222-B820E83CBFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF64F451-5DC7-AA42-AB52-ED0CEF596487}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{C47EC3F5-65AB-2541-8222-B820E83CBFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60A26585-A92F-EF44-A2D3-F3533283BD4F}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{81273AF3-5841-6A49-A16F-52B5AE037B00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Name of part</t>
   </si>
@@ -93,13 +93,22 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>(for prepaid import tax)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +141,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,12 +170,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,15 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C63DBF-5D2C-EF42-93E6-A7A97AA4B7E5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
@@ -576,7 +594,7 @@
         <v>0.41</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E5" si="0">C3*D3</f>
         <v>1.64</v>
       </c>
       <c r="F3" t="s">
@@ -632,6 +650,37 @@
       </c>
       <c r="G5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
